--- a/inputs/AddictO_Rels.xlsx
+++ b/inputs/AddictO_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,103 +749,105 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIOR:000009</t>
+          <t>ADDICTOR:0000001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>has abstinence period</t>
-        </is>
-      </c>
+          <t>has a personal stake in organisation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>participates in [RO:0000056]</t>
+          <t>has characteristic</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>
+          <t>Relates a person to an organisation in the case where the person stands to gain or lose something of value resulting from the activities of the organisation or what happens to it.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>abstinence from a behaviour</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>abstinence duration</t>
-        </is>
-      </c>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RO:0000053</t>
+          <t>BCIOR:000009</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>bearer of [RO:0000053]</t>
+          <t>has abstinence period</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
+          <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIOR:000010</t>
+          <t>RO:0000053</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>has behavioural attribute</t>
+          <t>has attribute</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bearer of [RO:0000053]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
+          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIOR:000016</t>
+          <t>BCIOR:000010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>has behavioural companion</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has behavioural attribute</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -855,29 +857,29 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIOR:000012</t>
+          <t>BCIOR:000016</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>has behavioural goal</t>
+          <t>has behavioural companion</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>causally influenced by [RO:0002559]</t>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
+          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -887,29 +889,29 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>animal</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIOR:000013</t>
+          <t>BCIOR:000012</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>has behavioural outcome</t>
+          <t>has behavioural goal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>causal relation between entities [RO:0002506]</t>
+          <t>causally influenced by [RO:0002559]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
+          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -919,29 +921,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>cognitive representation</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIOR:000017</t>
+          <t>BCIOR:000013</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has behavioural target</t>
+          <t>has behavioural outcome</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>causal relation between entities [RO:0002506]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
+          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -951,161 +953,161 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RO:0000091</t>
+          <t>BCIOR:000017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>has disposition</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>has disposition [RO:0000091]</t>
+          <t>has behavioural target</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
+          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>RO:0000091</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has output</t>
+          <t>has disposition</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]</t>
+          <t>has disposition [RO:0000091]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>has part</t>
+          <t>has output</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]</t>
+          <t>has output [RO:0002234]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A core relation that holds between a whole and its part</t>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>has process attribute</t>
+          <t>has part</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]</t>
+          <t>has part [BFO:0000051]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of</t>
+          <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>has process part</t>
+          <t>has process attribute</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>has occurrent part [BFO:0000117]</t>
+          <t>has profile [BFO:0000119]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+          <t>Inverse of process_profile_of</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>has study investigator</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>behaviour change intervention study investigator</t>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>has study sample</t>
+          <t>has study investigator</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1115,7 +1117,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
+          <t>A relation that holds between a study and the study investigator for that study</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1125,198 +1127,203 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>has study sample</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t>A relation that holds between a study and the study sample for that study</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>research study sample</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>is attribute of</t>
+          <t>is about</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>characteristic of [RO:0000052]</t>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIOR:000018</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>is behavioural outcome of</t>
+          <t>is attribute of</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>characteristic of [RO:0000052]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inverse of has behavioural outcome relation.</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>has behavioural outcome</t>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>BCIOR:000018</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>is behavioural outcome of</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>person</t>
+          <t>Inverse of has behavioural outcome relation.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>has behavioural outcome</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
+          <t>is enacted by</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>located in</t>
+          <t>is process attribute of</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>located in [RO:0001025]</t>
+          <t>process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+          <t>inverse of has_process_profile</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>occupies temporal region</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1326,248 +1333,275 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>entity</t>
+          <t>Inverse of has output relation</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>participates in</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+          <t>A core relation that holds between a part and its whole</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>realised in</t>
+          <t>participates in</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>realises</t>
+          <t>realised in</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+          <t>Inverse of realizes relation.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIOR:000011</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>serves behavioural function</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>realises [BFO:0000055]</t>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Realises the human life function of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>human life function</t>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RO:0002223</t>
+          <t>BCIOR:000011</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>starts</t>
+          <t>serves behavioural function</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>realises [BFO:0000055]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse of starts with </t>
+          <t>Realises the human life function of an individual human behaviour.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>human life function</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>RO:0002223</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>starts</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+          <t xml:space="preserve">inverse of starts with </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>behaviour change intervention mechanism of action</t>
+          <t>occurent</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>occurent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>BCIOR:000008</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>BCIOR:000015</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>uses</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/inputs/AddictO_Rels.xlsx
+++ b/inputs/AddictO_Rels.xlsx
@@ -757,10 +757,9 @@
           <t>has a personal stake in organisation</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>has characteristic</t>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -778,7 +777,6 @@
           <t>organisation</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">

--- a/inputs/AddictO_Rels.xlsx
+++ b/inputs/AddictO_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,44 +1100,46 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>ADDICTOR:0000002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>has study investigator</t>
-        </is>
-      </c>
+          <t>has provided paid advice to organisation</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
+          <t>Relates a person to an organisation in the case where they have provided expert advice to the organisation for which they or an organisation with which they are affiliated have been paid or received benefit of monetary value.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>behaviour change intervention study investigator</t>
-        </is>
-      </c>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>has study sample</t>
+          <t>has study investigator</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1147,7 +1149,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
+          <t>A relation that holds between a study and the study investigator for that study</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1157,449 +1159,515 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>has study sample</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t>A relation that holds between a study and the study sample for that study</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>research study sample</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>ADDICTOR:0000003</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>is attribute of</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>characteristic of [RO:0000052]</t>
+          <t>in recent employment by organisation</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
-        </is>
-      </c>
+          <t>Relates a legal person to an organisation in the case where the legal person has, or has recently had, a role in the organisation as an employee.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>human being</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIOR:000018</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>is behavioural outcome of</t>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inverse of has behavioural outcome relation.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>has behavioural outcome</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>is attribute of</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>characteristic of [RO:0000052]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>person</t>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>BCIOR:000018</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
+          <t>is behavioural outcome of</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
+          <t>Inverse of has behavioural outcome relation.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>has behavioural outcome</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>located in</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>located in [RO:0001025]</t>
+          <t>is enacted by</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>is process attribute of</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>inverse of has_process_profile</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
+          <t>occupies temporal region</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>independent continuant</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>participates in</t>
+          <t>output of</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>participates in [RO:0000056]</t>
+          <t>output of [RO:0002353]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+          <t>Inverse of has output relation</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>realised in</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
+          <t>A core relation that holds between a part and its whole</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>realises</t>
+          <t>participates in</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIOR:000011</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>serves behavioural function</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>realises [BFO:0000055]</t>
+          <t>realised in</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Realises the human life function of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>human life function</t>
+          <t>Inverse of realizes relation.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RO:0002223</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>starts</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse of starts with </t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>occurent</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>occurent</t>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>BCIOR:000011</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>serves behavioural function</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>realises [BFO:0000055]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+          <t>Realises the human life function of an individual human behaviour.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>behaviour change intervention mechanism of action</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>human life function</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>RO:0002223</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>starts</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inverse of starts with </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>occurent</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>occurent</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BCIOR:000008</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>BCIOR:000015</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>uses</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/inputs/AddictO_Rels.xlsx
+++ b/inputs/AddictO_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,7 +1108,6 @@
           <t>has provided paid advice to organisation</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
           <t>has characteristic [RO:0000053]</t>
@@ -1129,545 +1128,610 @@
           <t>organisation</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>ADDICTOR:0000004</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>has study investigator</t>
-        </is>
-      </c>
+          <t>has provided unpaid advice to organisation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
+          <t>Relates a person to an organisation in the case where the person has provided expert advice to the organisation without payment or benefit to themselves or an organisation with which they are affiliated.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>behaviour change intervention study investigator</t>
-        </is>
-      </c>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>ADDICTOR:0000005</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>has study sample</t>
-        </is>
-      </c>
+          <t>has received benefit from organisation</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
+          <t>Relates a person to an organisation in the case where the person or an organisation with which they are affiliated has received something of value from the organisation.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>research study sample</t>
-        </is>
-      </c>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000003</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>in recent employment by organisation</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>has study investigator</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>has characteristic [RO:0000053]</t>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Relates a legal person to an organisation in the case where the legal person has, or has recently had, a role in the organisation as an employee.</t>
+          <t>A relation that holds between a study and the study investigator for that study</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>organisation</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>behaviour change intervention study investigator</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>has study sample</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t>A relation that holds between a study and the study sample for that study</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>research study sample</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>ADDICTOR:0000003</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>is attribute of</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>characteristic of [RO:0000052]</t>
+          <t>in recent employment by organisation</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
+          <t>Relates a legal person to an organisation in the case where the legal person has, or has recently had, a role in the organisation as an employee.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>human being</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>organisation</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIOR:000018</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>is behavioural outcome of</t>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inverse of has behavioural outcome relation.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>has behavioural outcome</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>is attribute of</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>characteristic of [RO:0000052]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>person</t>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>BCIOR:000018</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
+          <t>is behavioural outcome of</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
+          <t>Inverse of has behavioural outcome relation.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>has behavioural outcome</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>located in</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>located in [RO:0001025]</t>
+          <t>is enacted by</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>is process attribute of</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>inverse of has_process_profile</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
+          <t>occupies temporal region</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>independent continuant</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>participates in</t>
+          <t>output of</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>participates in [RO:0000056]</t>
+          <t>output of [RO:0002353]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+          <t>Inverse of has output relation</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>realised in</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
+          <t>A core relation that holds between a part and its whole</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>realises</t>
+          <t>participates in</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIOR:000011</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>serves behavioural function</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>realises [BFO:0000055]</t>
+          <t>realised in</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Realises the human life function of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>human life function</t>
+          <t>Inverse of realizes relation.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RO:0002223</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>starts</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse of starts with </t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>occurent</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>occurent</t>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>BCIOR:000011</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>serves behavioural function</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>realises [BFO:0000055]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+          <t>Realises the human life function of an individual human behaviour.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>behaviour change intervention mechanism of action</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>human life function</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>RO:0002223</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>starts</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inverse of starts with </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>occurent</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>occurent</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BCIOR:000008</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>BCIOR:000015</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>uses</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/inputs/AddictO_Rels.xlsx
+++ b/inputs/AddictO_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,7 +1494,6 @@
           <t>is director of organisation</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
           <t>has personal stake in organisation</t>
@@ -1515,7 +1514,6 @@
           <t>organisation</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1574,71 +1572,78 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>ADDICTOR:0000010</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>located in</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>located in [RO:0001025]</t>
+          <t>is unpaid director of organisation</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>is director of organisation</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
-        </is>
-      </c>
+          <t>is director of organisation without receiving payment.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>human being</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>occupies temporal region</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1648,248 +1653,275 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>entity</t>
+          <t>Inverse of has output relation</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>participates in</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+          <t>A core relation that holds between a part and its whole</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>realised in</t>
+          <t>participates in</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>realises</t>
+          <t>realised in</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+          <t>Inverse of realizes relation.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIOR:000011</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>serves behavioural function</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>realises [BFO:0000055]</t>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Realises the human life function of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>human life function</t>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RO:0002223</t>
+          <t>BCIOR:000011</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>starts</t>
+          <t>serves behavioural function</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>realises [BFO:0000055]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse of starts with </t>
+          <t>Realises the human life function of an individual human behaviour.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>human life function</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>RO:0002223</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>starts</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+          <t xml:space="preserve">inverse of starts with </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>behaviour change intervention mechanism of action</t>
+          <t>occurent</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>occurent</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>BCIOR:000008</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>BCIOR:000015</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>uses</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/inputs/AddictO_Rels.xlsx
+++ b/inputs/AddictO_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,629 +525,604 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIOR:000006</t>
+          <t>RO:0002229</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>comparatively evaluates</t>
+          <t>ends</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>is about [IAO:0000136]</t>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A relation that holds between a comparative evaluation study and two or more scenarios that are being compared</t>
+          <t>inverse of ends with</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIOR:000007</t>
+          <t>RO:0002092</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>difference between</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>happens during</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>happens during [RO:0002092]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A relation that holds between an effect estimate and two outcome estimates</t>
+          <t>X happens_during Y iff: (start(Y) before_or_simultaneous_with start(X)) AND (end(X) before_or_simultaneous_with end(Y))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RO:0002229</t>
+          <t>ADDICTOR:0000001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ends</t>
+          <t>has a personal stake in organisation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>inverse of ends with</t>
+          <t>Relates a person to an organisation in the case where the person stands to gain or lose something of value resulting from the activities of the organisation or what happens to it.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>organisation</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIOR:000005</t>
+          <t>RO:0000053</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>evaluates</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>has attribute</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bearer of [RO:0000053]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A relation that holds between an evaluation study and the scenario that it is evaluating</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>entity</t>
+          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RO:0002092</t>
+          <t>RO:0000091</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>happens during</t>
+          <t>has disposition</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>happens during [RO:0002092]</t>
+          <t>has disposition [RO:0000091]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>X happens_during Y iff: (start(Y) before_or_simultaneous_with start(X)) AND (end(X) before_or_simultaneous_with end(Y))</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>occurent</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>occurent</t>
+          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIOR:000004</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>has BCI context</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has output</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>has output [RO:0002234]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A relation that holds between a behaviour change intervention scenario and the context of the scenario</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>behaviour change intervention scenario</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>behaviour change intervention context</t>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIOR:000003</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>has BCI source</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has part</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>has part [BFO:0000051]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A relation that holds between a behaviour change intervention delivery and the source who performs the delivery</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
+          <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000001</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>has a personal stake in organisation</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>has characteristic [RO:0000053]</t>
+          <t>has process attribute</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>has profile [BFO:0000119]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Relates a person to an organisation in the case where the person stands to gain or lose something of value resulting from the activities of the organisation or what happens to it.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>human being</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>organisation</t>
+          <t>Inverse of process_profile_of</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIOR:000009</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>has abstinence period</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>abstinence from a behaviour</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RO:0000053</t>
+          <t>ADDICTOR:0000002</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>bearer of [RO:0000053]</t>
+          <t>has provided paid advice to organisation</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
+          <t>Relates a person to an organisation in the case where they have provided expert advice to the organisation for which they or an organisation with which they are affiliated have been paid or received benefit of monetary value.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>human being</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>organisation</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIOR:000010</t>
+          <t>ADDICTOR:0000004</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>has behavioural attribute</t>
+          <t>has provided unpaid advice to organisation</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
+          <t>Relates a person to an organisation in the case where the person has provided expert advice to the organisation without payment or benefit to themselves or an organisation with which they are affiliated.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>organisation</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIOR:000016</t>
+          <t>ADDICTOR:0000005</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>has behavioural companion</t>
+          <t>has received benefit from organisation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+          <t>Relates a person to an organisation in the case where the person or an organisation with which they are affiliated has received something of value from the organisation.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>organisation</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIOR:000012</t>
+          <t>ADDICTOR:0000006</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>has behavioural goal</t>
+          <t>has received financial benefit from organisation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>causally influenced by [RO:0002559]</t>
+          <t>has received benefit from organisation [ADDICTOR:0000005]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
+          <t>Relates a person to an organisation in the case where the person, or an organisation with which they are affiliated, has received money or something that can be exchanged for money from the organisation.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>organisation</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIOR:000013</t>
+          <t>ADDICTOR:0000008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has behavioural outcome</t>
+          <t>has received non-financial benefit from organisation</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>causal relation between entities [RO:0002506]</t>
+          <t>has received benefit from organisation [ADDICTOR:0000005]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
+          <t>Relates a person to an organisation in the case where the person or an organisation with which they are affiliated has received something from the organisation that cannot be exchanged for money.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>organisation</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIOR:000017</t>
+          <t>ADDICTOR:0000007</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>has behavioural target</t>
+          <t>has received personal financial benefit from organisation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has received financial benefit from organisation [ADDICTOR:0000006]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
+          <t>Relates a person to an organisation in the case where the person, or an organisation with which they are affiliated, has received money or something that can be exchanged for money from the organisation.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>organisation</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RO:0000091</t>
+          <t>ADDICTOR:0000009</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has disposition</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>has disposition [RO:0000091]</t>
+          <t>has received research support from organisation</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>has received benefit from organisation [ADDICTOR:0000005]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
+          <t>Relates a person to an organisation in the case where the person or an organisation with which they are affiliated has received goods or services from the organisation to enable or facilitate the conduct of research in which they are involved.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>human being</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>organisation</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>ADDICTOR:0000003</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>has output</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>has output [RO:0002234]</t>
+          <t>in recent employment by organisation</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+          <t>Relates a legal person to an organisation in the case where the legal person has, or has recently had, a role in the organisation as an employee.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>human being</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>organisation</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>has part</t>
+          <t>is about</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]</t>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A core relation that holds between a whole and its part</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>has process attribute</t>
+          <t>is attribute of</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]</t>
+          <t>characteristic of [RO:0000052]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of</t>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>ADDICTOR:0000006</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>has process part</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>has occurrent part [BFO:0000117]</t>
+          <t>is director of organisation</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>has personal stake in organisation</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+          <t>has personal stake in organisation that involves being in a director role.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>human being</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>organisation</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000002</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>has provided paid advice to organisation</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>has characteristic [RO:0000053]</t>
+          <t>is process attribute of</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Relates a person to an organisation in the case where they have provided expert advice to the organisation for which they or an organisation with which they are affiliated have been paid or received benefit of monetary value.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>human being</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>organisation</t>
+          <t>inverse of has_process_profile</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000004</t>
+          <t>ADDICTOR:0000010</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>has provided unpaid advice to organisation</t>
+          <t>is unpaid director of organisation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>has characteristic [RO:0000053]</t>
+          <t>is director of organisation</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Relates a person to an organisation in the case where the person has provided expert advice to the organisation without payment or benefit to themselves or an organisation with which they are affiliated.</t>
+          <t>is director of organisation without receiving payment.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1164,764 +1139,290 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000005</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>has received benefit from organisation</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>has characteristic [RO:0000053]</t>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Relates a person to an organisation in the case where the person or an organisation with which they are affiliated has received something of value from the organisation.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>human being</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>organisation</t>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000006</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>has received financial benefit from organisation</t>
+          <t>occupies temporal region</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>has received benefit from organisation [ADDICTOR:0000005]</t>
+          <t>exists at [BFO:0000108]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Relates a person to an organisation in the case where the person, or an organisation with which they are affiliated, has received money or something that can be exchanged for money from the organisation.</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000008</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>has received non-financial benefit from organisation</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>has received benefit from organisation [ADDICTOR:0000005]</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Relates a person to an organisation in the case where the person or an organisation with which they are affiliated has received something from the organisation that cannot be exchanged for money.</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>independent continuant</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000007</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>has received personal financial benefit from organisation</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>has received financial benefit from organisation [ADDICTOR:0000006]</t>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Relates a person to an organisation in the case where the person, or an organisation with which they are affiliated, has received money or something that can be exchanged for money from the organisation.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>human being</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>organisation</t>
+          <t>Inverse of has output relation</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000009</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>has received research support from organisation</t>
+          <t>part of</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>has received benefit from organisation [ADDICTOR:0000005]</t>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Relates a person to an organisation in the case where the person or an organisation with which they are affiliated has received goods or services from the organisation to enable or facilitate the conduct of research in which they are involved.</t>
+          <t>A core relation that holds between a part and its whole</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>has study investigator</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>participates in</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>behaviour change intervention study investigator</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>has study sample</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>realised in</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>research study sample</t>
+          <t>Inverse of realizes relation.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000003</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>in recent employment by organisation</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>has characteristic [RO:0000053]</t>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Relates a legal person to an organisation in the case where the legal person has, or has recently had, a role in the organisation as an employee.</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>human being</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>organisation</t>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>RO:0002223</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>starts</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t xml:space="preserve">inverse of starts with </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>occurent</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>occurent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>BCIOR:000008</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>is attribute of</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>characteristic of [RO:0000052]</t>
+          <t>through</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIOR:000018</t>
+          <t>BCIOR:000015</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>is behavioural outcome of</t>
+          <t>uses</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inverse of has behavioural outcome relation.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>has behavioural outcome</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ADDICTOR:0000006</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>is director of organisation</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>has personal stake in organisation</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>has personal stake in organisation that involves being in a director role.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>human being</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>organisation</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BCIOR:000014</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
+          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BFO:0000133</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>inverse of has_process_profile</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ADDICTOR:0000010</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>is unpaid director of organisation</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>is director of organisation</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>is director of organisation without receiving payment.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>human being</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>organisation</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>RO:0001025</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>located in</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>located in [RO:0001025]</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BFO:0000155</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>BFO:0000066</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>occurs in</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>RO:0002353</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Inverse of has output relation</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>BFO:0000050</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>A core relation that holds between a part and its whole</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>RO:0000056</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>participates in</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>BFO:0000054</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>realised in</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>realized in [BFO:0000054]</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Inverse of realizes relation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>BFO:0000055</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>realises</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>realizes [BFO:0000055]</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>BCIOR:000011</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>serves behavioural function</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>realises [BFO:0000055]</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Realises the human life function of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>RO:0002223</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>starts</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inverse of starts with </t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>occurent</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>occurent</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>BCIOR:000008</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>through</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mechanism of action</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>BCIOR:000015</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>uses</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/inputs/AddictO_Rels.xlsx
+++ b/inputs/AddictO_Rels.xlsx
@@ -1053,7 +1053,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000006</t>
+          <t>ADDICTOR:0000011</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>

--- a/inputs/AddictO_Rels.xlsx
+++ b/inputs/AddictO_Rels.xlsx
@@ -825,6 +825,7 @@
           <t>has received benefit from organisation</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>has characteristic [RO:0000053]</t>
@@ -859,7 +860,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>has received benefit from organisation [ADDICTOR:0000005]</t>
+          <t>has received benefit from organisation</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/inputs/AddictO_Rels.xlsx
+++ b/inputs/AddictO_Rels.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,7 +825,6 @@
           <t>has received benefit from organisation</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>has characteristic [RO:0000053]</t>
@@ -1162,22 +1161,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1187,243 +1181,184 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>independent continuant</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
+          <t>Inverse of has output relation</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>output of</t>
+          <t>participates in</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>output of [RO:0002353]</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>realised in</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>entity</t>
+          <t>Inverse of realizes relation.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>participates in</t>
+          <t>realises</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>participates in [RO:0000056]</t>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>RO:0002223</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>realised in</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>starts</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
+          <t xml:space="preserve">inverse of starts with </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BCIOR:000008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>realises</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>through</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RO:0002223</t>
+          <t>BCIOR:000015</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>starts</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse of starts with </t>
+          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BCIOR:000008</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>through</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mechanism of action</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BCIOR:000015</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>uses</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/inputs/AddictO_Rels.xlsx
+++ b/inputs/AddictO_Rels.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -589,120 +589,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADDICTOR:0000001</t>
+          <t>RO:0000053</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>has a personal stake in organisation</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>has characteristic [RO:0000053]</t>
+          <t>has attribute</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bearer of [RO:0000053]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Relates a person to an organisation in the case where the person stands to gain or lose something of value resulting from the activities of the organisation or what happens to it.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>human being</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>organisation</t>
+          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RO:0000053</t>
+          <t>RO:0000091</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>has attribute</t>
+          <t>has disposition</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bearer of [RO:0000053]</t>
+          <t>has disposition [RO:0000091]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
+          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RO:0000091</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>has disposition</t>
+          <t>has output</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>has disposition [RO:0000091]</t>
+          <t>has output [RO:0002234]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>has output</t>
+          <t>has part</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]</t>
+          <t>has part [BFO:0000051]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+          <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>ADDICTOR:0000001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>has part</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>has part [BFO:0000051]</t>
+          <t>has personal stake in organisation</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>has characteristic [RO:0000053]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A core relation that holds between a whole and its part</t>
+          <t>Relates a person to an organisation in the case where the person stands to gain or lose something of value resulting from the activities of the organisation or what happens to it.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>human being</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>organisation</t>
         </is>
       </c>
     </row>
